--- a/ancient_glass/铅钡_聚类.xlsx
+++ b/ancient_glass/铅钡_聚类.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,77 +436,77 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>文物采样点</t>
+          <t>Cultural relic sampling site</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硅(SiO2)</t>
+          <t>SiO2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>氧化钠(Na2O)</t>
+          <t>Na2O</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>氧化钾(K2O)</t>
+          <t>K2O</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>氧化钙(CaO)</t>
+          <t>CaO</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>氧化镁(MgO)</t>
+          <t>MgO</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>氧化铝(Al2O3)</t>
+          <t>Al2O3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>氧化铁(Fe2O3)</t>
+          <t>Fe2O3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>氧化铜(CuO)</t>
+          <t>CuO</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>氧化铅(PbO)</t>
+          <t>PbO</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>氧化钡(BaO)</t>
+          <t>BaO</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>五氧化二磷(P2O5)</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>氧化锶(SrO)</t>
+          <t>SrO</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>氧化锡(SnO2)</t>
+          <t>SnO</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硫(SO2)</t>
+          <t>SO2</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08严重风化点</t>
+          <t>08 Severe weathering point</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -830,7 +830,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23未风化点</t>
+          <t>23 Unweathered point</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -934,7 +934,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25未风化点</t>
+          <t>25 Unweathered point</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1038,7 +1038,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26严重风化点</t>
+          <t>26 Severe weathering point</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1090,7 +1090,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>28未风化点</t>
+          <t>28 Unweathered point</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1142,7 +1142,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29未风化点</t>
+          <t>29 Unweathered point</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1194,7 +1194,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30部位1</t>
+          <t>30 parts 1</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1246,7 +1246,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30部位2</t>
+          <t>30 parts 2</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1870,7 +1870,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>42未风化点1</t>
+          <t>42 Unweathered point</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1922,7 +1922,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>42未风化点2</t>
+          <t>42 Unweathered point 2</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1974,7 +1974,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>43部位1</t>
+          <t>43 parts 1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2026,7 +2026,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43部位2</t>
+          <t>43 parts 2</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2078,7 +2078,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44未风化点</t>
+          <t>44 Unweathered point</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2390,7 +2390,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>49未风化点</t>
+          <t>49 Unweathered point</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2494,7 +2494,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>50未风化点</t>
+          <t>50 Unweathered point</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2546,7 +2546,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>51部位1</t>
+          <t>51 parts 1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2598,7 +2598,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>51部位2</t>
+          <t>51 parts 2</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2702,7 +2702,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>53未风化点</t>
+          <t>53 Unweathered point</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2806,7 +2806,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>54严重风化点</t>
+          <t>54 Severe weathering point</t>
         </is>
       </c>
       <c r="B46" t="n">
